--- a/biology/Histoire de la zoologie et de la botanique/Émile_Dottrens/Émile_Dottrens.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Dottrens/Émile_Dottrens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dottrens</t>
+          <t>Émile_Dottrens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Dottrens (21 juillet 1900 – 29 septembre 1990) est un zoologiste suisse et défenseur de la nature et de l'environnement. Il devient assistant scientifique de zoologie au muséum d'histoire naturelle de Genève en 1942, puis directeur de cette même institution de 1953 à 1969, succédant à Pierre Revilliod. Il a écrit plusieurs articles sur les poissons d'eau douce de Suisse du genre Coregonus. Il a travaillé pour l'UICN, pour la Suisse, l'organisation de la conservation de la nature Pro Natura et du Conseil de l'Europe. Il a été le président de la Commission internationale pour la protection des Alpes (CIPRA) de 1960 à 1968. En outre, il a été membre de l'Académie Suisse des Sciences et de la Société de physique et d'histoire naturelle de Genève. Il dirige la Revue suisse de Zoologie de 1954 à 1969.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Dottrens</t>
+          <t>Émile_Dottrens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Liste incomplète)
 Émile Dottrens, Le grand livre de la pêche et des poissons. 2 volumes, 1952
